--- a/Luban/Datas/Zerg/card.xlsx
+++ b/Luban/Datas/Zerg/card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12450"/>
+    <workbookView windowWidth="14310" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -139,8 +139,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -164,9 +164,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,39 +194,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +226,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -241,23 +241,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -265,44 +266,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,17 +511,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -572,24 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +575,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,130 +629,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -764,8 +764,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1097,7 +1097,8 @@
     <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="13.1428571428571" customWidth="1"/>
     <col min="5" max="8" width="17.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="79.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="36.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="31.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1187,7 +1188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="2:9">
+    <row r="4" ht="17.25" spans="2:10">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1209,9 +1210,10 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" ht="17.25" spans="2:8">
       <c r="B5">
@@ -1258,7 +1260,7 @@
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1284,7 +1286,7 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1310,7 +1312,7 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1336,7 +1338,7 @@
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1362,7 +1364,7 @@
       <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Luban/Datas/Zerg/card.xlsx
+++ b/Luban/Datas/Zerg/card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14310" windowHeight="6600"/>
+    <workbookView windowWidth="24225" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>##</t>
   </si>
@@ -43,6 +43,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>requireGroundType</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>CardType</t>
   </si>
   <si>
+    <t>GroundType</t>
+  </si>
+  <si>
     <t>道具id</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>可以生效的地形</t>
+  </si>
+  <si>
     <t>大本营</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>+1⚡️每回合</t>
   </si>
   <si>
+    <t>Empty</t>
+  </si>
+  <si>
     <t>探照灯</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
     <t>+1石每回合</t>
   </si>
   <si>
+    <t>Mineral</t>
+  </si>
+  <si>
     <t>地下声纳</t>
   </si>
   <si>
@@ -119,6 +134,9 @@
   </si>
   <si>
     <t>400 AOE3x3，子弹伤害。</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>冶金厂</t>
@@ -138,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -164,9 +182,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +274,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -188,121 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,43 +335,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,139 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,41 +526,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,26 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +577,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -611,7 +629,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,130 +647,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1107,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1101,7 +1119,7 @@
     <col min="10" max="10" width="31.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,63 +1147,72 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:10">
@@ -1193,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1211,22 +1238,24 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" ht="17.25" spans="2:8">
+    <row r="5" ht="17.25" spans="2:10">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1237,19 +1266,22 @@
       <c r="H5">
         <v>10</v>
       </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" ht="17.25" spans="2:9">
+    <row r="6" ht="17.25" spans="2:10">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1261,21 +1293,24 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="2:9">
+    <row r="7" ht="17.25" spans="2:10">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1287,21 +1322,24 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="2:9">
+    <row r="8" ht="17.25" spans="2:10">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1313,21 +1351,24 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="2:9">
+    <row r="9" ht="17.25" spans="2:10">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -1339,21 +1380,24 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="2:9">
+    <row r="10" ht="17.25" spans="2:10">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1365,21 +1409,24 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="2:9">
+    <row r="11" ht="17.25" spans="2:10">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1391,7 +1438,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Datas/Zerg/card.xlsx
+++ b/Luban/Datas/Zerg/card.xlsx
@@ -156,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -183,53 +183,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +268,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -258,6 +289,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -267,18 +305,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,37 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,19 +335,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,85 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,43 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,17 +529,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,34 +580,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,11 +611,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +621,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,130 +647,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1313,10 +1313,10 @@
         <v>33</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1429,13 +1429,13 @@
         <v>38</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>44</v>

--- a/Luban/Datas/Zerg/card.xlsx
+++ b/Luban/Datas/Zerg/card.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>##</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>探照灯</t>
+  </si>
+  <si>
+    <t>总之就是可以照的很远很亮啦。</t>
   </si>
   <si>
     <t>矿场</t>
@@ -157,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,6 +185,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,6 +200,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -198,14 +216,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +279,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -229,98 +316,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,11 +532,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,73 +629,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,130 +650,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1110,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1266,6 +1269,9 @@
       <c r="H5">
         <v>10</v>
       </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
       <c r="J5" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1293,10 +1299,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="2:10">
@@ -1304,13 +1310,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1322,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -1333,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1351,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
@@ -1362,13 +1368,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -1380,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="2:10">
@@ -1391,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1409,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
@@ -1420,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1438,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
